--- a/Xports/UD_French-FQB/VERB.xlsx
+++ b/Xports/UD_French-FQB/VERB.xlsx
@@ -36871,7 +36871,7 @@
         <v>5005</v>
       </c>
       <c r="O439">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:15">
